--- a/Data/Raw/polls_2026_local_election_raw.xlsx
+++ b/Data/Raw/polls_2026_local_election_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이승진\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7815355-3D55-423D-BA5E-48560242EF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A146535-A29A-49D0-8B8D-F6C4E77B3B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{9714055E-7717-4034-AD2B-B3D5471502D5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{9714055E-7717-4034-AD2B-B3D5471502D5}"/>
   </bookViews>
   <sheets>
     <sheet name="개요 및 예측" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>2026 지방선거 여론조사 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,14 @@
   </si>
   <si>
     <t>12(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여론조사공정(펜앤마이크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2%/64.9%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,11 +383,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -388,28 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,24 +754,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
@@ -900,10 +896,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D42AF-4FA2-4F17-A543-5B165741195D}">
-  <dimension ref="B2:AT32"/>
+  <dimension ref="B2:AT33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -923,59 +919,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:46" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="I2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="I2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="4" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="W2" s="3" t="s">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="W2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AD2" s="3" t="s">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AD2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.3">
       <c r="K3" s="1"/>
@@ -997,72 +993,67 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="W4" s="2" t="s">
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="W4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AD4" s="2" t="s">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AD4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="2" t="s">
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AH4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="2" t="s">
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AL4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="2" t="s">
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AP4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
     </row>
     <row r="5" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -1071,10 +1062,10 @@
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="I5" t="s">
         <v>37</v>
       </c>
@@ -1123,13 +1114,13 @@
       <c r="AA5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AD5" t="s">
         <v>33</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AE5" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AF5" t="s">
         <v>35</v>
       </c>
       <c r="AH5" t="s">
@@ -1144,394 +1135,401 @@
       <c r="AL5" t="s">
         <v>41</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AM5" t="s">
         <v>36</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AN5" t="s">
         <v>35</v>
       </c>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5" t="s">
+      <c r="AP5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AQ5" t="s">
         <v>34</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AR5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:46" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
-        <v>46384</v>
-      </c>
-      <c r="C6" s="7">
-        <v>46385</v>
+      <c r="B6" s="3">
+        <v>46377</v>
+      </c>
+      <c r="C6" s="3">
+        <v>46378</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="1">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6">
-        <v>37</v>
-      </c>
-      <c r="J6">
+        <v>67</v>
+      </c>
+      <c r="W6" s="1">
         <v>29</v>
       </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>20</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W6" s="1">
-        <v>26</v>
-      </c>
       <c r="X6" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y6" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Z6" s="1">
         <v>8</v>
       </c>
       <c r="AA6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>46384</v>
+      </c>
+      <c r="C7" s="3">
+        <v>46385</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1">
+        <v>804</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <v>29</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7" s="1">
+        <v>26</v>
+      </c>
+      <c r="X7" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD7">
         <v>40</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AE7">
         <v>41</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AF7">
         <v>12</v>
       </c>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-    </row>
-    <row r="7" spans="2:46" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+    </row>
+    <row r="8" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
         <v>46384</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="3">
         <v>46386</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1">
-        <v>800</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7">
-        <v>36</v>
-      </c>
-      <c r="J7">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7">
-        <v>45</v>
-      </c>
-      <c r="T7">
-        <v>50</v>
-      </c>
-      <c r="U7">
-        <v>6</v>
-      </c>
-      <c r="W7" s="1">
-        <v>23</v>
-      </c>
-      <c r="X7" s="1">
-        <v>11</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>19</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>12</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>37</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>34</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>24</v>
-      </c>
-      <c r="AH7">
-        <v>40</v>
-      </c>
-      <c r="AI7">
-        <v>31</v>
-      </c>
-      <c r="AJ7">
-        <v>24</v>
-      </c>
-      <c r="AL7">
-        <v>32</v>
-      </c>
-      <c r="AM7" s="5">
-        <v>33</v>
-      </c>
-      <c r="AN7" s="5">
-        <v>28</v>
-      </c>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5">
-        <v>31</v>
-      </c>
-      <c r="AQ7" s="5">
-        <v>38</v>
-      </c>
-      <c r="AR7" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:46" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
-        <v>46384</v>
-      </c>
-      <c r="C8" s="7">
-        <v>46386</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="1">
-        <v>804</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>46</v>
+        <v>800</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I8">
+        <v>36</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>21</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="1">
         <v>45</v>
       </c>
-      <c r="J8">
-        <v>28</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>14</v>
-      </c>
-      <c r="O8">
-        <v>53</v>
-      </c>
-      <c r="P8">
+      <c r="T8" s="1">
+        <v>50</v>
+      </c>
+      <c r="U8" s="1">
+        <v>6</v>
+      </c>
+      <c r="W8" s="1">
+        <v>23</v>
+      </c>
+      <c r="X8" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD8">
         <v>37</v>
-      </c>
-      <c r="Q8">
-        <v>10</v>
-      </c>
-      <c r="S8">
-        <v>42</v>
-      </c>
-      <c r="T8">
-        <v>52</v>
-      </c>
-      <c r="U8">
-        <v>5</v>
-      </c>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AD8">
-        <v>36</v>
       </c>
       <c r="AE8">
         <v>34</v>
       </c>
       <c r="AF8">
+        <v>24</v>
+      </c>
+      <c r="AH8">
+        <v>40</v>
+      </c>
+      <c r="AI8">
+        <v>31</v>
+      </c>
+      <c r="AJ8">
+        <v>24</v>
+      </c>
+      <c r="AL8">
+        <v>32</v>
+      </c>
+      <c r="AM8">
+        <v>33</v>
+      </c>
+      <c r="AN8">
+        <v>28</v>
+      </c>
+      <c r="AP8">
+        <v>31</v>
+      </c>
+      <c r="AQ8">
+        <v>38</v>
+      </c>
+      <c r="AR8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>46384</v>
+      </c>
+      <c r="C9" s="3">
+        <v>46386</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AH8">
-        <v>37</v>
-      </c>
-      <c r="AI8">
-        <v>34</v>
-      </c>
-      <c r="AJ8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:46" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
-        <v>46385</v>
-      </c>
-      <c r="C9" s="6">
-        <v>46386</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9">
-        <v>800</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
+      <c r="F9" s="1">
+        <v>804</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="I9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>28</v>
       </c>
-      <c r="K9" s="1">
-        <v>4</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="M9" s="1">
-        <v>16</v>
-      </c>
-      <c r="N9" s="1"/>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
       <c r="O9" s="1">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="P9" s="1">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="1">
-        <v>8</v>
-      </c>
-      <c r="R9" s="1"/>
+        <v>10</v>
+      </c>
       <c r="S9" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T9" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U9" s="1">
-        <v>6</v>
-      </c>
-      <c r="V9" s="1"/>
+        <v>5</v>
+      </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AD9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AF9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AH9">
         <v>37</v>
       </c>
       <c r="AI9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ9">
-        <v>13</v>
-      </c>
-      <c r="AL9">
-        <v>31</v>
-      </c>
-      <c r="AM9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>46385</v>
+      </c>
+      <c r="C10" s="2">
+        <v>46386</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AN9">
-        <v>13</v>
-      </c>
-      <c r="AP9">
-        <v>31</v>
-      </c>
-      <c r="AQ9">
-        <v>44</v>
-      </c>
-      <c r="AR9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:46" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>800</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10">
+        <v>37</v>
+      </c>
+      <c r="J10">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>16</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="O10" s="1">
+        <v>23</v>
+      </c>
+      <c r="P10" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>8</v>
+      </c>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="S10" s="1">
+        <v>43</v>
+      </c>
+      <c r="T10" s="1">
+        <v>51</v>
+      </c>
+      <c r="U10" s="1">
+        <v>6</v>
+      </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
+      <c r="AD10">
+        <v>38</v>
+      </c>
+      <c r="AE10">
+        <v>39</v>
+      </c>
+      <c r="AF10">
+        <v>8</v>
+      </c>
+      <c r="AH10">
+        <v>37</v>
+      </c>
+      <c r="AI10">
+        <v>35</v>
+      </c>
+      <c r="AJ10">
+        <v>13</v>
+      </c>
+      <c r="AL10">
+        <v>31</v>
+      </c>
+      <c r="AM10">
+        <v>43</v>
+      </c>
+      <c r="AN10">
+        <v>13</v>
+      </c>
+      <c r="AP10">
+        <v>31</v>
+      </c>
+      <c r="AQ10">
+        <v>44</v>
+      </c>
+      <c r="AR10">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="2:46" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
@@ -1875,6 +1873,23 @@
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
@@ -1888,26 +1903,29 @@
     <row r="32" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="AL4:AN4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="I4:M4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="B2:G2"/>
     <mergeCell ref="AD2:AT2"/>
     <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="W4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
